--- a/use_case_docu/use_case_docu_Dongyao(4,5,6,7).xlsx
+++ b/use_case_docu/use_case_docu_Dongyao(4,5,6,7).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="21580" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="5100" yWindow="-18120" windowWidth="21580" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -149,18 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A list of level shows up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select the level.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>According level shows selected status.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Game gets stuck in setting menu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +230,18 @@
   </si>
   <si>
     <t>Locating music file failed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difficulty menu show up and asks user to type in level number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type in level number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main menu show up if level number is within level range, otherwise stay in difficulty level menu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +580,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,107 +685,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1091,112 +1091,112 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="20" thickTop="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="19">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="19">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="19">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="19">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="41" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="19">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="19">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1"/>
@@ -1205,14 +1205,14 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="38">
-      <c r="A10" s="22"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1"/>
@@ -1221,14 +1221,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="57">
-      <c r="A11" s="24"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1"/>
@@ -1237,38 +1237,38 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="19">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="19">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="20" thickBot="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1295,112 +1295,112 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="19" customHeight="1" thickTop="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="19" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="19" customHeight="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="19" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="19">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="19">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="1"/>
@@ -1408,32 +1408,32 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="38">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:8" ht="57">
+      <c r="A25" s="12"/>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>32</v>
+      <c r="D25" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="41" customHeight="1">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:8" ht="77" customHeight="1">
+      <c r="A26" s="14"/>
       <c r="B26" s="4">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1441,38 +1441,38 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="19" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="19" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="20" thickBot="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1499,294 +1499,317 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="20" thickTop="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="19">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="19">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="19">
+      <c r="A35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" ht="19">
+      <c r="A36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="19">
+      <c r="A37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:8" ht="19">
-      <c r="A35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="19">
-      <c r="A36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:8" ht="19">
-      <c r="A37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="19">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="19">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19">
-      <c r="A40" s="22"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="6">
         <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19">
-      <c r="A41" s="24"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="4">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="19">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:8" ht="20" thickBot="1">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="16" thickTop="1"/>
     <row r="46" spans="1:8" ht="16" thickBot="1"/>
     <row r="47" spans="1:8" ht="20" thickTop="1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="19">
+      <c r="A48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+    </row>
+    <row r="49" spans="1:4" ht="19">
+      <c r="A49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" ht="19">
+      <c r="A50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+    </row>
+    <row r="51" spans="1:4" ht="19">
+      <c r="A51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" ht="19">
+      <c r="A52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" ht="19">
-      <c r="A48" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" ht="19">
-      <c r="A49" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="19">
-      <c r="A50" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="19">
-      <c r="A51" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" ht="19">
-      <c r="A52" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" ht="19">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" ht="19">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19">
-      <c r="A55" s="22"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="6">
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="38">
-      <c r="A56" s="24"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4">
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="38">
-      <c r="A57" s="22"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="6">
         <v>3</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="19">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" ht="20" thickBot="1">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B58:D58"/>
@@ -1803,29 +1826,6 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
